--- a/ProbeTypeConvert.xlsx
+++ b/ProbeTypeConvert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanwu/Documents/Impedance_sort/Impedance_sort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7E293E-C429-2A44-9945-77E36418B4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE75520-7A6B-FE4F-B039-D01EE1FD0964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15520" xr2:uid="{8A82474E-F1B0-3647-B562-AD4C1AD99706}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>16-1-6mm</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>CNT</t>
+  </si>
+  <si>
+    <t>H10</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +801,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ProbeTypeConvert.xlsx
+++ b/ProbeTypeConvert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanwu/Documents/Impedance_sort/Impedance_sort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE75520-7A6B-FE4F-B039-D01EE1FD0964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042D5F3-9492-804A-A21A-C8FAF4B76202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15520" xr2:uid="{8A82474E-F1B0-3647-B562-AD4C1AD99706}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>16-1-6mm</t>
   </si>
@@ -174,9 +174,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>64-15</t>
-  </si>
-  <si>
     <t>DBC</t>
   </si>
   <si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>H10</t>
+  </si>
+  <si>
+    <t>64-13</t>
+  </si>
+  <si>
+    <t>64-L3</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,14 +240,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6D7CC2-7F0E-8341-A759-D8F128520A98}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,10 +591,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,10 +815,18 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ProbeTypeConvert.xlsx
+++ b/ProbeTypeConvert.xlsx
@@ -832,4 +832,279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010093399425F93F804785964B57C0F20B92" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3df62e35a41ebb306b7499971bbc3b1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5172639-f152-4ce3-97f8-419b6aa181f5" xmlns:ns3="6d43f528-8809-4d6f-8b42-166edb45440f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70243bef512d56727772472832512648" ns2:_="" ns3:_="">
+    <xsd:import namespace="e5172639-f152-4ce3-97f8-419b6aa181f5"/>
+    <xsd:import namespace="6d43f528-8809-4d6f-8b42-166edb45440f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e5172639-f152-4ce3-97f8-419b6aa181f5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1591fe9d-6804-470b-83c8-e3ae9e8b4f7a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e5172639-f152-4ce3-97f8-419b6aa181f5">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6d43f528-8809-4d6f-8b42-166edb45440f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="fe1bfc0e-b4be-433a-8ca7-79a2af924347" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d43f528-8809-4d6f-8b42-166edb45440f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e5172639-f152-4ce3-97f8-419b6aa181f5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D399D223-B141-4E95-9470-1ABB07CABAA0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAC7B61D-F63A-469E-8465-433D1D07C3C4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E24C5CCA-840B-4DA8-8FB5-B04AF11E3107}"/>
 </file>